--- a/abc/abc-fastlink-business/abc-fastlink-business-portal/src/main/resources/model-01.xlsx
+++ b/abc/abc-fastlink-business/abc-fastlink-business-portal/src/main/resources/model-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\abc-cloud\abc\abc-fastlink-business\abc-fastlink-business-portal\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2039D9-E7F8-45DC-9F56-80C577DE07D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A8502E-CD0D-4CD7-B280-5878971950E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>333-memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试Excel导入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,12 +71,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,8 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -369,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -381,39 +394,48 @@
     <col min="2" max="2" width="15.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:2" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>111</v>
+      <c r="A2" t="s">
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>333</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/abc/abc-fastlink-business/abc-fastlink-business-portal/src/main/resources/model-01.xlsx
+++ b/abc/abc-fastlink-business/abc-fastlink-business-portal/src/main/resources/model-01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\abc-cloud\abc\abc-fastlink-business\abc-fastlink-business-portal\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A8502E-CD0D-4CD7-B280-5878971950E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F488D02-DA0D-4DC2-AC00-5AD3603D9398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,7 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +65,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -97,9 +106,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -382,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -401,15 +416,15 @@
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>111</v>
       </c>
       <c r="B3" t="s">
@@ -417,7 +432,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>222</v>
       </c>
       <c r="B4" t="s">
@@ -425,11 +440,51 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>333</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
